--- a/Data/NetSuiteTestData_ApprovalWorkflow.xlsx
+++ b/Data/NetSuiteTestData_ApprovalWorkflow.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="688">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -1970,36 +1970,18 @@
     <t>SB1</t>
   </si>
   <si>
-    <t>iHeart*123</t>
-  </si>
-  <si>
-    <t>SB1 - iHeartMedia  -  Administrator</t>
-  </si>
-  <si>
-    <t>TC_NST_2222</t>
-  </si>
-  <si>
     <t xml:space="preserve">Select Adjustment </t>
   </si>
   <si>
     <t>Add or Remove Agency Commission</t>
   </si>
   <si>
-    <t>Agency Commission</t>
-  </si>
-  <si>
     <t>Agencyselection</t>
   </si>
   <si>
     <t>invoiceNumber</t>
   </si>
   <si>
-    <t>2814607076</t>
-  </si>
-  <si>
-    <t>Address/Est/Note Change</t>
-  </si>
-  <si>
     <t>Order Entry Error</t>
   </si>
   <si>
@@ -2009,57 +1991,15 @@
     <t>RevisedEST/IO/CPE</t>
   </si>
   <si>
-    <t>Changing the EST</t>
-  </si>
-  <si>
     <t>NewNote1</t>
   </si>
   <si>
-    <t>TestNote1</t>
-  </si>
-  <si>
     <t>NewNote2</t>
   </si>
   <si>
-    <t>TestNote2</t>
-  </si>
-  <si>
-    <t>TC_NST_2223</t>
-  </si>
-  <si>
-    <t>Split Invoice</t>
-  </si>
-  <si>
-    <t>TC_NST_6700</t>
-  </si>
-  <si>
-    <t>3914610948</t>
-  </si>
-  <si>
-    <t>TC_NST_2224</t>
-  </si>
-  <si>
-    <t>Suppress Rates</t>
-  </si>
-  <si>
-    <t>3314611261</t>
-  </si>
-  <si>
     <t>SubramanyamBaipineedi@iheartmedia.com</t>
   </si>
   <si>
-    <t>SB1 Dev1 - iHeartMedia  -  Administrator</t>
-  </si>
-  <si>
-    <t>6514608855</t>
-  </si>
-  <si>
-    <t>5 Oweno Place Mahwah, US - 07430</t>
-  </si>
-  <si>
-    <t>TC_NST_2225</t>
-  </si>
-  <si>
     <t>Issue Credit to Client</t>
   </si>
   <si>
@@ -2090,16 +2030,61 @@
     <t>Arsin*1234</t>
   </si>
   <si>
-    <t>TC_NST_2226</t>
-  </si>
-  <si>
     <t>6115112625</t>
   </si>
   <si>
-    <t>TC_NST_2227</t>
-  </si>
-  <si>
-    <t>3014426945</t>
+    <t>Issue Credit and Revise Invoice</t>
+  </si>
+  <si>
+    <t>TC_NST_6694</t>
+  </si>
+  <si>
+    <t>SB5 20.1 Upgrade - iHeartmedia  -  Administrator</t>
+  </si>
+  <si>
+    <t>3214777163</t>
+  </si>
+  <si>
+    <t>AdjustmentAmount</t>
+  </si>
+  <si>
+    <t>12000</t>
+  </si>
+  <si>
+    <t>TC_NST_6692</t>
+  </si>
+  <si>
+    <t>linetype</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>TC_NST_6691</t>
+  </si>
+  <si>
+    <t>4500</t>
+  </si>
+  <si>
+    <t>TC_NST_6693</t>
+  </si>
+  <si>
+    <t>TC_NST_6710</t>
+  </si>
+  <si>
+    <t>TC_NST_6709</t>
+  </si>
+  <si>
+    <t>TC_NST_6708</t>
+  </si>
+  <si>
+    <t>TC_NST_6711</t>
+  </si>
+  <si>
+    <t>TC_NST_6712</t>
+  </si>
+  <si>
+    <t>3215319939</t>
   </si>
 </sst>
 </file>
@@ -2123,7 +2108,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2147,17 +2132,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -2174,7 +2148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -2186,12 +2160,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -2497,10 +2466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2519,12 +2488,14 @@
     <col min="12" max="12" width="24.140625" customWidth="1"/>
     <col min="13" max="13" width="27.28515625" customWidth="1"/>
     <col min="14" max="14" width="18.7109375" customWidth="1"/>
-    <col min="15" max="15" width="15.7109375" customWidth="1"/>
+    <col min="15" max="15" width="33.5703125" customWidth="1"/>
     <col min="16" max="16" width="28.5703125" customWidth="1"/>
-    <col min="17" max="17" width="19.7109375" customWidth="1"/>
+    <col min="17" max="17" width="17.28515625" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" customWidth="1"/>
+    <col min="19" max="19" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2547,319 +2518,454 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>680</v>
-      </c>
       <c r="P1" s="1" t="s">
-        <v>682</v>
+        <v>662</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>664</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>651</v>
+        <v>685</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>648</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>674</v>
+        <v>658</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>649</v>
+        <v>668</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>650</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>654</v>
-      </c>
       <c r="J2" s="6" t="s">
-        <v>657</v>
-      </c>
-      <c r="L2" s="9"/>
-    </row>
-    <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>667</v>
+      </c>
+      <c r="L2" s="7"/>
+      <c r="O2" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>667</v>
+        <v>686</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>648</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>674</v>
+        <v>658</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>649</v>
+        <v>668</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>650</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="L3" s="7"/>
+      <c r="O3" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>659</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>676</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>677</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>662</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>669</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>648</v>
-      </c>
-      <c r="C4" t="s">
-        <v>668</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>674</v>
+        <v>658</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="G4" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>650</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>670</v>
-      </c>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>653</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>669</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="O4" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>671</v>
+        <v>684</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>648</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>672</v>
+        <v>659</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>674</v>
+        <v>658</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>649</v>
+        <v>668</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="H5" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>659</v>
-      </c>
       <c r="J5" s="6" t="s">
-        <v>673</v>
-      </c>
-      <c r="L5" s="9"/>
-    </row>
-    <row r="6" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>669</v>
+      </c>
+      <c r="L5" s="7"/>
+      <c r="O5" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>648</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>679</v>
+        <v>659</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>674</v>
+        <v>658</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>688</v>
+        <v>668</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>686</v>
+        <v>666</v>
       </c>
       <c r="H6" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>653</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>659</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>687</v>
       </c>
-      <c r="L6" s="9"/>
+      <c r="L6" s="7"/>
       <c r="O6" s="1" t="s">
-        <v>681</v>
+        <v>661</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="Q6" s="11" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>663</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>689</v>
+        <v>671</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>648</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>679</v>
+        <v>659</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>674</v>
+        <v>658</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>688</v>
+        <v>668</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>686</v>
+        <v>672</v>
       </c>
       <c r="H7" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>659</v>
-      </c>
       <c r="J7" s="6" t="s">
-        <v>690</v>
-      </c>
-      <c r="L7" s="9"/>
+        <v>673</v>
+      </c>
+      <c r="L7" s="7"/>
       <c r="O7" s="1" t="s">
-        <v>681</v>
+        <v>670</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="Q7" s="11" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>663</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>665</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>691</v>
+        <v>676</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>648</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>679</v>
+        <v>659</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>674</v>
+        <v>658</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>688</v>
+        <v>668</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>686</v>
+        <v>672</v>
       </c>
       <c r="H8" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="6" t="s">
+        <v>673</v>
+      </c>
+      <c r="L8" s="7"/>
+      <c r="O8" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>665</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>675</v>
+      </c>
+      <c r="S8" s="8" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>659</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>692</v>
-      </c>
-      <c r="L8" s="9"/>
-      <c r="O8" s="1" t="s">
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>658</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>673</v>
+      </c>
+      <c r="L9" s="7"/>
+      <c r="O9" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>665</v>
+      </c>
+      <c r="R9" s="8">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>681</v>
       </c>
-      <c r="P8" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="Q8" s="11" t="s">
-        <v>685</v>
+      <c r="B10" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>659</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>658</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>673</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="O10" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="Q10" s="8" t="s">
+        <v>665</v>
+      </c>
+      <c r="R10" s="8" t="s">
+        <v>680</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B3 B5:B8">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B10">
       <formula1>"SB1,SB2,SB3,SB4"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
-    <hyperlink ref="D5" r:id="rId4"/>
-    <hyperlink ref="D6" r:id="rId5"/>
-    <hyperlink ref="D7" r:id="rId6"/>
-    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="D4" r:id="rId2"/>
+    <hyperlink ref="D6" r:id="rId3"/>
+    <hyperlink ref="D7" r:id="rId4"/>
+    <hyperlink ref="D8" r:id="rId5"/>
+    <hyperlink ref="D9" r:id="rId6"/>
+    <hyperlink ref="D10" r:id="rId7"/>
+    <hyperlink ref="D5" r:id="rId8"/>
+    <hyperlink ref="D3" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 
